--- a/examples/eop_config/spreadsheets/template-org.xlsx
+++ b/examples/eop_config/spreadsheets/template-org.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CFC238-D153-420A-9F67-CF9C4AE8F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B02D8B-E03D-4C18-83FB-65DEC815B6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="zones" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -54,19 +54,19 @@
     <t>first_iteration</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>a_zone</t>
   </si>
   <si>
     <t>Organisation of Entities: first_iteration</t>
   </si>
   <si>
-    <t>dot</t>
-  </si>
-  <si>
-    <t>cross</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1, cross</t>
+  </si>
+  <si>
+    <t>0, dot</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -471,9 +471,15 @@
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -485,24 +491,35 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -520,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,21 +548,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -553,13 +576,13 @@
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -567,13 +590,13 @@
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
